--- a/第四轮建模/数据/高峰时期人次.xlsx
+++ b/第四轮建模/数据/高峰时期人次.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7910" xr2:uid="{A0B8F9DD-FB0D-4751-8D16-6FA47B5D2CB3}"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7910" activeTab="1" xr2:uid="{A0B8F9DD-FB0D-4751-8D16-6FA47B5D2CB3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="11">
   <si>
     <t>公交</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -39,6 +40,34 @@
   </si>
   <si>
     <t>班车</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Vcrowded</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Vclear</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Distace</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Delay</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Salary</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Loss</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Population</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -403,10 +432,234 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9FA75A6-9C7B-416D-BCC2-FE4FC447AA79}">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:G18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1">
+        <v>452</v>
+      </c>
+      <c r="C1">
+        <v>0.16300000000000001</v>
+      </c>
+      <c r="D1">
+        <v>0.11600000000000001</v>
+      </c>
+      <c r="E1">
+        <f>B1*C1+B1*D1</f>
+        <v>126.108</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>577</v>
+      </c>
+      <c r="C2">
+        <v>0.20499999999999999</v>
+      </c>
+      <c r="D2">
+        <v>0.161</v>
+      </c>
+      <c r="E2">
+        <f t="shared" ref="E2:E4" si="0">B2*C2+B2*D2</f>
+        <v>211.18200000000002</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>65</v>
+      </c>
+      <c r="C3">
+        <v>0.13300000000000001</v>
+      </c>
+      <c r="D3">
+        <v>0.03</v>
+      </c>
+      <c r="E3">
+        <f t="shared" si="0"/>
+        <v>10.594999999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>34</v>
+      </c>
+      <c r="C4">
+        <v>0.30099999999999999</v>
+      </c>
+      <c r="D4">
+        <v>0.17799999999999999</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="0"/>
+        <v>16.286000000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E5">
+        <f>SUM(E1:E4)</f>
+        <v>364.17099999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B8">
+        <v>7.1</v>
+      </c>
+      <c r="C8">
+        <v>14.6</v>
+      </c>
+      <c r="D8">
+        <v>7.3</v>
+      </c>
+      <c r="E8">
+        <f>D8*(1/B8-1/C8)</f>
+        <v>0.52816901408450712</v>
+      </c>
+      <c r="F8">
+        <v>126.1</v>
+      </c>
+      <c r="G8">
+        <v>40.15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B9">
+        <v>17.05</v>
+      </c>
+      <c r="C9">
+        <v>35.049999999999997</v>
+      </c>
+      <c r="D9">
+        <v>16.7</v>
+      </c>
+      <c r="E9">
+        <f t="shared" ref="E9:E11" si="1">D9*(1/B9-1/C9)</f>
+        <v>0.50300994390083698</v>
+      </c>
+      <c r="F9">
+        <v>16.29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B10">
+        <v>14.9</v>
+      </c>
+      <c r="C10">
+        <v>30.63</v>
+      </c>
+      <c r="D10">
+        <v>13.2</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="1"/>
+        <v>0.45495599129685987</v>
+      </c>
+      <c r="F10">
+        <v>211.18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B11">
+        <v>9.0500000000000007</v>
+      </c>
+      <c r="C11">
+        <v>18.61</v>
+      </c>
+      <c r="D11">
+        <v>9.9</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="1"/>
+        <v>0.56195059390038615</v>
+      </c>
+      <c r="F11">
+        <v>10.6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B14">
+        <f>E8*F8*$G$8*22*12</f>
+        <v>705955.75352112693</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B15">
+        <f t="shared" ref="B15:B17" si="2">E9*F9*$G$8*22*12</f>
+        <v>86853.461440338651</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B16">
+        <f t="shared" si="2"/>
+        <v>1018384.1951234543</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B17">
+        <f t="shared" si="2"/>
+        <v>63138.38606012924</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B18">
+        <f>SUM(B14:B17)</f>
+        <v>1874331.7961450492</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6054E1C-6BD5-42EE-B0E6-7CD1A4C692F4}">
+  <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="C5" sqref="C5:C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -484,9 +737,78 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="E5">
-        <f>SUM(E1:E4)</f>
-        <v>364.17099999999999</v>
+      <c r="A5">
+        <v>30389</v>
+      </c>
+      <c r="B5">
+        <f>SUM(B1:B4)</f>
+        <v>1128</v>
+      </c>
+      <c r="C5">
+        <f>B1/B$5</f>
+        <v>0.40070921985815605</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C6">
+        <f t="shared" ref="C6:C8" si="1">B2/B$5</f>
+        <v>0.51152482269503541</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <f>B1/$B$5*$A$5</f>
+        <v>12177.152482269505</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="1"/>
+        <v>5.7624113475177305E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <f t="shared" ref="A8:A10" si="2">B2/$B$5*$A$5</f>
+        <v>15544.72783687943</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="1"/>
+        <v>3.0141843971631204E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <f t="shared" si="2"/>
+        <v>1751.139184397163</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <f t="shared" si="2"/>
+        <v>915.98049645390063</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <f>A7/2</f>
+        <v>6088.5762411347523</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <f t="shared" ref="A13:A15" si="3">A8/2</f>
+        <v>7772.3639184397152</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <f t="shared" si="3"/>
+        <v>875.56959219858152</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <f t="shared" si="3"/>
+        <v>457.99024822695031</v>
       </c>
     </row>
   </sheetData>
